--- a/DESIGN/rules/Repository.TestGitCommitChangesOutsideWebstudio/Main.xlsx
+++ b/DESIGN/rules/Repository.TestGitCommitChangesOutsideWebstudio/Main.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="285" yWindow="105" windowWidth="16140" windowHeight="9210"/>
@@ -236,9 +236,6 @@
     <t>R30</t>
   </si>
   <si>
-    <t>Good Evening</t>
-  </si>
-  <si>
     <t>R40</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t>Rules String Hello (Integer hour)</t>
+  </si>
+  <si>
+    <t>Goo</t>
   </si>
 </sst>
 </file>
@@ -307,7 +307,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,6 +338,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -584,7 +590,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -597,6 +602,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -961,7 +967,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -980,12 +988,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="B3" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -998,7 +1006,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
@@ -1010,16 +1018,16 @@
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>5</v>
@@ -1046,53 +1054,53 @@
       <c r="C8" s="16">
         <v>0</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="27">
         <v>11</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>12</v>
       </c>
-      <c r="D9" s="21">
-        <v>17</v>
-      </c>
-      <c r="E9" s="22" t="s">
+      <c r="D9" s="20">
+        <v>999</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="20">
-        <v>18</v>
-      </c>
-      <c r="D10" s="21">
+      <c r="C10" s="19">
+        <v>765788818</v>
+      </c>
+      <c r="D10" s="20">
+        <v>666621</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>21</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="23">
+        <v>22</v>
+      </c>
+      <c r="D11" s="24">
+        <v>23</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>15</v>
-      </c>
-      <c r="C11" s="24">
-        <v>22</v>
-      </c>
-      <c r="D11" s="25">
-        <v>23</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
